--- a/reynante-ramos/DevProgress.xlsx
+++ b/reynante-ramos/DevProgress.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RCR\UPOU\215\final project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RCR\UPOU\215\final project\reynante-ramos\is215-group-I\reynante-ramos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -496,8 +496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -748,12 +748,12 @@
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
+      <c r="A59" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
+      <c r="A62" s="1" t="s">
         <v>47</v>
       </c>
     </row>
